--- a/regulations_option1.xlsx
+++ b/regulations_option1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="25">
   <si>
     <t>dtrip_2019</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>VA</t>
+  </si>
+  <si>
+    <t>pd_multiplier</t>
   </si>
 </sst>
 </file>
@@ -416,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A73" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,6 +499,9 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -543,7 +549,9 @@
       <c r="O2" s="1">
         <v>100</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -602,7 +610,9 @@
       <c r="O3" s="1">
         <v>100</v>
       </c>
-      <c r="P3" s="1"/>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -661,7 +671,9 @@
       <c r="O4" s="1">
         <v>100</v>
       </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -720,7 +732,9 @@
       <c r="O5" s="1">
         <v>100</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -779,7 +793,9 @@
       <c r="O6" s="1">
         <v>100</v>
       </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -838,7 +854,9 @@
       <c r="O7" s="1">
         <v>100</v>
       </c>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -897,7 +915,9 @@
       <c r="O8" s="1">
         <v>100</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -956,7 +976,9 @@
       <c r="O9" s="1">
         <v>100</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1015,7 +1037,9 @@
       <c r="O10" s="1">
         <v>100</v>
       </c>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1074,7 +1098,9 @@
       <c r="O11" s="1">
         <v>100</v>
       </c>
-      <c r="P11" s="1"/>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1133,7 +1159,9 @@
       <c r="O12" s="1">
         <v>100</v>
       </c>
-      <c r="P12" s="1"/>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1192,7 +1220,9 @@
       <c r="O13" s="1">
         <v>100</v>
       </c>
-      <c r="P13" s="1"/>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1251,7 +1281,9 @@
       <c r="O14" s="1">
         <v>100</v>
       </c>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1310,7 +1342,9 @@
       <c r="O15" s="1">
         <v>100</v>
       </c>
-      <c r="P15" s="1"/>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1369,7 +1403,9 @@
       <c r="O16" s="1">
         <v>100</v>
       </c>
-      <c r="P16" s="1"/>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1428,7 +1464,9 @@
       <c r="O17" s="1">
         <v>100</v>
       </c>
-      <c r="P17" s="1"/>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1487,7 +1525,9 @@
       <c r="O18" s="1">
         <v>100</v>
       </c>
-      <c r="P18" s="1"/>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1546,7 +1586,9 @@
       <c r="O19" s="1">
         <v>100</v>
       </c>
-      <c r="P19" s="1"/>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -1605,7 +1647,9 @@
       <c r="O20" s="1">
         <v>100</v>
       </c>
-      <c r="P20" s="1"/>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1664,7 +1708,9 @@
       <c r="O21" s="1">
         <v>100</v>
       </c>
-      <c r="P21" s="1"/>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1723,7 +1769,9 @@
       <c r="O22" s="1">
         <v>100</v>
       </c>
-      <c r="P22" s="1"/>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1782,7 +1830,9 @@
       <c r="O23" s="1">
         <v>100</v>
       </c>
-      <c r="P23" s="1"/>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -1841,7 +1891,9 @@
       <c r="O24" s="1">
         <v>100</v>
       </c>
-      <c r="P24" s="1"/>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -1900,7 +1952,9 @@
       <c r="O25" s="1">
         <v>100</v>
       </c>
-      <c r="P25" s="1"/>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -1959,7 +2013,9 @@
       <c r="O26" s="1">
         <v>100</v>
       </c>
-      <c r="P26" s="1"/>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2018,7 +2074,9 @@
       <c r="O27" s="1">
         <v>100</v>
       </c>
-      <c r="P27" s="1"/>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2077,7 +2135,9 @@
       <c r="O28" s="1">
         <v>100</v>
       </c>
-      <c r="P28" s="1"/>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2136,7 +2196,9 @@
       <c r="O29" s="1">
         <v>100</v>
       </c>
-      <c r="P29" s="1"/>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2195,7 +2257,9 @@
       <c r="O30" s="1">
         <v>100</v>
       </c>
-      <c r="P30" s="1"/>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -2254,7 +2318,9 @@
       <c r="O31" s="1">
         <v>100</v>
       </c>
-      <c r="P31" s="1"/>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2313,7 +2379,9 @@
       <c r="O32" s="1">
         <v>100</v>
       </c>
-      <c r="P32" s="1"/>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -2372,7 +2440,9 @@
       <c r="O33" s="1">
         <v>100</v>
       </c>
-      <c r="P33" s="1"/>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2431,7 +2501,9 @@
       <c r="O34" s="1">
         <v>100</v>
       </c>
-      <c r="P34" s="1"/>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2490,7 +2562,9 @@
       <c r="O35" s="1">
         <v>100</v>
       </c>
-      <c r="P35" s="1"/>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2549,7 +2623,9 @@
       <c r="O36" s="1">
         <v>100</v>
       </c>
-      <c r="P36" s="1"/>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2608,7 +2684,9 @@
       <c r="O37" s="1">
         <v>100</v>
       </c>
-      <c r="P37" s="1"/>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -2667,7 +2745,9 @@
       <c r="O38" s="1">
         <v>100</v>
       </c>
-      <c r="P38" s="1"/>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -2726,7 +2806,9 @@
       <c r="O39" s="1">
         <v>100</v>
       </c>
-      <c r="P39" s="1"/>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -2785,7 +2867,9 @@
       <c r="O40" s="1">
         <v>100</v>
       </c>
-      <c r="P40" s="1"/>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -2844,7 +2928,9 @@
       <c r="O41" s="1">
         <v>100</v>
       </c>
-      <c r="P41" s="1"/>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -2903,7 +2989,9 @@
       <c r="O42" s="1">
         <v>100</v>
       </c>
-      <c r="P42" s="1"/>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -2962,7 +3050,9 @@
       <c r="O43" s="1">
         <v>100</v>
       </c>
-      <c r="P43" s="1"/>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -3021,7 +3111,9 @@
       <c r="O44" s="1">
         <v>100</v>
       </c>
-      <c r="P44" s="1"/>
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -3080,7 +3172,9 @@
       <c r="O45" s="1">
         <v>100</v>
       </c>
-      <c r="P45" s="1"/>
+      <c r="P45" s="1">
+        <v>1</v>
+      </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -3139,7 +3233,9 @@
       <c r="O46" s="1">
         <v>100</v>
       </c>
-      <c r="P46" s="1"/>
+      <c r="P46" s="1">
+        <v>1</v>
+      </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -3198,7 +3294,9 @@
       <c r="O47" s="1">
         <v>100</v>
       </c>
-      <c r="P47" s="1"/>
+      <c r="P47" s="1">
+        <v>1</v>
+      </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -3257,7 +3355,9 @@
       <c r="O48" s="1">
         <v>100</v>
       </c>
-      <c r="P48" s="1"/>
+      <c r="P48" s="1">
+        <v>1</v>
+      </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -3316,7 +3416,9 @@
       <c r="O49" s="1">
         <v>100</v>
       </c>
-      <c r="P49" s="1"/>
+      <c r="P49" s="1">
+        <v>1</v>
+      </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -3375,7 +3477,9 @@
       <c r="O50" s="1">
         <v>100</v>
       </c>
-      <c r="P50" s="1"/>
+      <c r="P50" s="1">
+        <v>1</v>
+      </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -3434,7 +3538,9 @@
       <c r="O51" s="1">
         <v>100</v>
       </c>
-      <c r="P51" s="1"/>
+      <c r="P51" s="1">
+        <v>1</v>
+      </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -3493,7 +3599,9 @@
       <c r="O52" s="1">
         <v>100</v>
       </c>
-      <c r="P52" s="1"/>
+      <c r="P52" s="1">
+        <v>1</v>
+      </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
@@ -3552,7 +3660,9 @@
       <c r="O53" s="1">
         <v>100</v>
       </c>
-      <c r="P53" s="1"/>
+      <c r="P53" s="1">
+        <v>1</v>
+      </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -3611,7 +3721,9 @@
       <c r="O54" s="1">
         <v>100</v>
       </c>
-      <c r="P54" s="1"/>
+      <c r="P54" s="1">
+        <v>1</v>
+      </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -3670,7 +3782,9 @@
       <c r="O55" s="1">
         <v>100</v>
       </c>
-      <c r="P55" s="1"/>
+      <c r="P55" s="1">
+        <v>1</v>
+      </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -3729,7 +3843,9 @@
       <c r="O56" s="1">
         <v>27</v>
       </c>
-      <c r="P56" s="1"/>
+      <c r="P56" s="1">
+        <v>1</v>
+      </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -3788,7 +3904,9 @@
       <c r="O57" s="1">
         <v>27</v>
       </c>
-      <c r="P57" s="1"/>
+      <c r="P57" s="1">
+        <v>1</v>
+      </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -3847,7 +3965,9 @@
       <c r="O58" s="1">
         <v>27</v>
       </c>
-      <c r="P58" s="1"/>
+      <c r="P58" s="1">
+        <v>1</v>
+      </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -3906,7 +4026,9 @@
       <c r="O59" s="1">
         <v>27</v>
       </c>
-      <c r="P59" s="1"/>
+      <c r="P59" s="1">
+        <v>1</v>
+      </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -3965,7 +4087,9 @@
       <c r="O60" s="1">
         <v>27</v>
       </c>
-      <c r="P60" s="1"/>
+      <c r="P60" s="1">
+        <v>1</v>
+      </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -4024,7 +4148,9 @@
       <c r="O61" s="1">
         <v>27</v>
       </c>
-      <c r="P61" s="1"/>
+      <c r="P61" s="1">
+        <v>1</v>
+      </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -4083,7 +4209,9 @@
       <c r="O62" s="1">
         <v>27</v>
       </c>
-      <c r="P62" s="1"/>
+      <c r="P62" s="1">
+        <v>1</v>
+      </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -4142,7 +4270,9 @@
       <c r="O63" s="1">
         <v>27</v>
       </c>
-      <c r="P63" s="1"/>
+      <c r="P63" s="1">
+        <v>1</v>
+      </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -4201,7 +4331,9 @@
       <c r="O64" s="1">
         <v>27</v>
       </c>
-      <c r="P64" s="1"/>
+      <c r="P64" s="1">
+        <v>1</v>
+      </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -4260,7 +4392,9 @@
       <c r="O65" s="1">
         <v>27</v>
       </c>
-      <c r="P65" s="1"/>
+      <c r="P65" s="1">
+        <v>1</v>
+      </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -4319,7 +4453,9 @@
       <c r="O66" s="1">
         <v>27</v>
       </c>
-      <c r="P66" s="1"/>
+      <c r="P66" s="1">
+        <v>1</v>
+      </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -4378,7 +4514,9 @@
       <c r="O67" s="1">
         <v>100</v>
       </c>
-      <c r="P67" s="1"/>
+      <c r="P67" s="1">
+        <v>1</v>
+      </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -4437,7 +4575,9 @@
       <c r="O68" s="1">
         <v>100</v>
       </c>
-      <c r="P68" s="1"/>
+      <c r="P68" s="1">
+        <v>1</v>
+      </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -4496,7 +4636,9 @@
       <c r="O69" s="1">
         <v>100</v>
       </c>
-      <c r="P69" s="1"/>
+      <c r="P69" s="1">
+        <v>1</v>
+      </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -4555,7 +4697,9 @@
       <c r="O70" s="1">
         <v>100</v>
       </c>
-      <c r="P70" s="1"/>
+      <c r="P70" s="1">
+        <v>1</v>
+      </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -4614,7 +4758,9 @@
       <c r="O71" s="1">
         <v>100</v>
       </c>
-      <c r="P71" s="1"/>
+      <c r="P71" s="1">
+        <v>1</v>
+      </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -4673,7 +4819,9 @@
       <c r="O72" s="1">
         <v>100</v>
       </c>
-      <c r="P72" s="1"/>
+      <c r="P72" s="1">
+        <v>1</v>
+      </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -4732,7 +4880,9 @@
       <c r="O73" s="1">
         <v>100</v>
       </c>
-      <c r="P73" s="1"/>
+      <c r="P73" s="1">
+        <v>1</v>
+      </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -4791,7 +4941,9 @@
       <c r="O74" s="1">
         <v>100</v>
       </c>
-      <c r="P74" s="1"/>
+      <c r="P74" s="1">
+        <v>1</v>
+      </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -4850,7 +5002,9 @@
       <c r="O75" s="1">
         <v>100</v>
       </c>
-      <c r="P75" s="1"/>
+      <c r="P75" s="1">
+        <v>1</v>
+      </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -4909,7 +5063,9 @@
       <c r="O76" s="1">
         <v>100</v>
       </c>
-      <c r="P76" s="1"/>
+      <c r="P76" s="1">
+        <v>1</v>
+      </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
@@ -4968,7 +5124,9 @@
       <c r="O77" s="1">
         <v>100</v>
       </c>
-      <c r="P77" s="1"/>
+      <c r="P77" s="1">
+        <v>1</v>
+      </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -5027,7 +5185,9 @@
       <c r="O78" s="1">
         <v>100</v>
       </c>
-      <c r="P78" s="1"/>
+      <c r="P78" s="1">
+        <v>1</v>
+      </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
@@ -5086,7 +5246,9 @@
       <c r="O79" s="1">
         <v>100</v>
       </c>
-      <c r="P79" s="1"/>
+      <c r="P79" s="1">
+        <v>1</v>
+      </c>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
@@ -5145,7 +5307,9 @@
       <c r="O80" s="1">
         <v>100</v>
       </c>
-      <c r="P80" s="1"/>
+      <c r="P80" s="1">
+        <v>1</v>
+      </c>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
@@ -5204,7 +5368,9 @@
       <c r="O81" s="1">
         <v>100</v>
       </c>
-      <c r="P81" s="1"/>
+      <c r="P81" s="1">
+        <v>1</v>
+      </c>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -5263,7 +5429,9 @@
       <c r="O82" s="1">
         <v>100</v>
       </c>
-      <c r="P82" s="1"/>
+      <c r="P82" s="1">
+        <v>1</v>
+      </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
@@ -5322,7 +5490,9 @@
       <c r="O83" s="1">
         <v>100</v>
       </c>
-      <c r="P83" s="1"/>
+      <c r="P83" s="1">
+        <v>1</v>
+      </c>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -5381,7 +5551,9 @@
       <c r="O84" s="1">
         <v>100</v>
       </c>
-      <c r="P84" s="1"/>
+      <c r="P84" s="1">
+        <v>1</v>
+      </c>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -5440,7 +5612,9 @@
       <c r="O85" s="1">
         <v>100</v>
       </c>
-      <c r="P85" s="1"/>
+      <c r="P85" s="1">
+        <v>1</v>
+      </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -5499,7 +5673,9 @@
       <c r="O86" s="1">
         <v>100</v>
       </c>
-      <c r="P86" s="1"/>
+      <c r="P86" s="1">
+        <v>1</v>
+      </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -5558,7 +5734,9 @@
       <c r="O87" s="1">
         <v>100</v>
       </c>
-      <c r="P87" s="1"/>
+      <c r="P87" s="1">
+        <v>1</v>
+      </c>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
@@ -5617,7 +5795,9 @@
       <c r="O88" s="1">
         <v>100</v>
       </c>
-      <c r="P88" s="1"/>
+      <c r="P88" s="1">
+        <v>1</v>
+      </c>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
@@ -5676,7 +5856,9 @@
       <c r="O89" s="1">
         <v>100</v>
       </c>
-      <c r="P89" s="1"/>
+      <c r="P89" s="1">
+        <v>1</v>
+      </c>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -5735,7 +5917,9 @@
       <c r="O90" s="1">
         <v>100</v>
       </c>
-      <c r="P90" s="1"/>
+      <c r="P90" s="1">
+        <v>1</v>
+      </c>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
@@ -5794,7 +5978,9 @@
       <c r="O91" s="1">
         <v>100</v>
       </c>
-      <c r="P91" s="1"/>
+      <c r="P91" s="1">
+        <v>1</v>
+      </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -5853,7 +6039,9 @@
       <c r="O92" s="1">
         <v>100</v>
       </c>
-      <c r="P92" s="1"/>
+      <c r="P92" s="1">
+        <v>1</v>
+      </c>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -5912,7 +6100,9 @@
       <c r="O93" s="1">
         <v>100</v>
       </c>
-      <c r="P93" s="1"/>
+      <c r="P93" s="1">
+        <v>1</v>
+      </c>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -5971,7 +6161,9 @@
       <c r="O94" s="1">
         <v>100</v>
       </c>
-      <c r="P94" s="1"/>
+      <c r="P94" s="1">
+        <v>1</v>
+      </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -6030,7 +6222,9 @@
       <c r="O95" s="1">
         <v>100</v>
       </c>
-      <c r="P95" s="1"/>
+      <c r="P95" s="1">
+        <v>1</v>
+      </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
@@ -6089,7 +6283,9 @@
       <c r="O96" s="1">
         <v>100</v>
       </c>
-      <c r="P96" s="1"/>
+      <c r="P96" s="1">
+        <v>1</v>
+      </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -6148,7 +6344,9 @@
       <c r="O97" s="1">
         <v>100</v>
       </c>
-      <c r="P97" s="1"/>
+      <c r="P97" s="1">
+        <v>1</v>
+      </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
@@ -6207,7 +6405,9 @@
       <c r="O98" s="1">
         <v>100</v>
       </c>
-      <c r="P98" s="1"/>
+      <c r="P98" s="1">
+        <v>1</v>
+      </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
@@ -6266,7 +6466,9 @@
       <c r="O99" s="1">
         <v>100</v>
       </c>
-      <c r="P99" s="1"/>
+      <c r="P99" s="1">
+        <v>1</v>
+      </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -6325,7 +6527,9 @@
       <c r="O100" s="1">
         <v>100</v>
       </c>
-      <c r="P100" s="1"/>
+      <c r="P100" s="1">
+        <v>1</v>
+      </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
@@ -6384,7 +6588,9 @@
       <c r="O101" s="1">
         <v>100</v>
       </c>
-      <c r="P101" s="1"/>
+      <c r="P101" s="1">
+        <v>1</v>
+      </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -6443,7 +6649,9 @@
       <c r="O102" s="1">
         <v>100</v>
       </c>
-      <c r="P102" s="1"/>
+      <c r="P102" s="1">
+        <v>1</v>
+      </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -6502,7 +6710,9 @@
       <c r="O103" s="1">
         <v>100</v>
       </c>
-      <c r="P103" s="1"/>
+      <c r="P103" s="1">
+        <v>1</v>
+      </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
@@ -6561,7 +6771,9 @@
       <c r="O104" s="1">
         <v>100</v>
       </c>
-      <c r="P104" s="1"/>
+      <c r="P104" s="1">
+        <v>1</v>
+      </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -6620,7 +6832,9 @@
       <c r="O105" s="1">
         <v>100</v>
       </c>
-      <c r="P105" s="1"/>
+      <c r="P105" s="1">
+        <v>1</v>
+      </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
@@ -6679,7 +6893,9 @@
       <c r="O106" s="1">
         <v>100</v>
       </c>
-      <c r="P106" s="1"/>
+      <c r="P106" s="1">
+        <v>1</v>
+      </c>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
@@ -6738,7 +6954,9 @@
       <c r="O107" s="1">
         <v>100</v>
       </c>
-      <c r="P107" s="1"/>
+      <c r="P107" s="1">
+        <v>1</v>
+      </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -6797,7 +7015,9 @@
       <c r="O108" s="1">
         <v>100</v>
       </c>
-      <c r="P108" s="1"/>
+      <c r="P108" s="1">
+        <v>1</v>
+      </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -6856,7 +7076,9 @@
       <c r="O109" s="1">
         <v>26</v>
       </c>
-      <c r="P109" s="1"/>
+      <c r="P109" s="1">
+        <v>1</v>
+      </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
@@ -6915,7 +7137,9 @@
       <c r="O110" s="1">
         <v>26</v>
       </c>
-      <c r="P110" s="1"/>
+      <c r="P110" s="1">
+        <v>1</v>
+      </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
@@ -6974,7 +7198,9 @@
       <c r="O111" s="1">
         <v>26</v>
       </c>
-      <c r="P111" s="1"/>
+      <c r="P111" s="1">
+        <v>1</v>
+      </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
@@ -7033,7 +7259,9 @@
       <c r="O112" s="1">
         <v>26</v>
       </c>
-      <c r="P112" s="1"/>
+      <c r="P112" s="1">
+        <v>1</v>
+      </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -7092,7 +7320,9 @@
       <c r="O113" s="1">
         <v>26</v>
       </c>
-      <c r="P113" s="1"/>
+      <c r="P113" s="1">
+        <v>1</v>
+      </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -7151,7 +7381,9 @@
       <c r="O114" s="1">
         <v>26</v>
       </c>
-      <c r="P114" s="1"/>
+      <c r="P114" s="1">
+        <v>1</v>
+      </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
@@ -7210,7 +7442,9 @@
       <c r="O115" s="1">
         <v>26</v>
       </c>
-      <c r="P115" s="1"/>
+      <c r="P115" s="1">
+        <v>1</v>
+      </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -7269,7 +7503,9 @@
       <c r="O116" s="1">
         <v>26</v>
       </c>
-      <c r="P116" s="1"/>
+      <c r="P116" s="1">
+        <v>1</v>
+      </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
@@ -7328,7 +7564,9 @@
       <c r="O117" s="1">
         <v>26</v>
       </c>
-      <c r="P117" s="1"/>
+      <c r="P117" s="1">
+        <v>1</v>
+      </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
@@ -7387,7 +7625,9 @@
       <c r="O118" s="1">
         <v>26</v>
       </c>
-      <c r="P118" s="1"/>
+      <c r="P118" s="1">
+        <v>1</v>
+      </c>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
@@ -7446,7 +7686,9 @@
       <c r="O119" s="1">
         <v>26</v>
       </c>
-      <c r="P119" s="1"/>
+      <c r="P119" s="1">
+        <v>1</v>
+      </c>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
@@ -7505,7 +7747,9 @@
       <c r="O120" s="1">
         <v>26</v>
       </c>
-      <c r="P120" s="1"/>
+      <c r="P120" s="1">
+        <v>1</v>
+      </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
@@ -7564,7 +7808,9 @@
       <c r="O121" s="1">
         <v>26</v>
       </c>
-      <c r="P121" s="1"/>
+      <c r="P121" s="1">
+        <v>1</v>
+      </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
@@ -7623,7 +7869,9 @@
       <c r="O122" s="1">
         <v>26</v>
       </c>
-      <c r="P122" s="1"/>
+      <c r="P122" s="1">
+        <v>1</v>
+      </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
@@ -7682,7 +7930,9 @@
       <c r="O123" s="1">
         <v>26</v>
       </c>
-      <c r="P123" s="1"/>
+      <c r="P123" s="1">
+        <v>1</v>
+      </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
@@ -7741,7 +7991,9 @@
       <c r="O124" s="1">
         <v>26</v>
       </c>
-      <c r="P124" s="1"/>
+      <c r="P124" s="1">
+        <v>1</v>
+      </c>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>

--- a/regulations_option1.xlsx
+++ b/regulations_option1.xlsx
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P124"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/regulations_option1.xlsx
+++ b/regulations_option1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10056"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:A115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I81" sqref="A1:P124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
